--- a/dist/mobygames.xlsx
+++ b/dist/mobygames.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t>MOBYGAMES</t>
   </si>
@@ -455,19 +455,22 @@
     <t>PC-6001</t>
   </si>
   <si>
+    <t>NEC PC</t>
+  </si>
+  <si>
+    <t>PC-8000</t>
+  </si>
+  <si>
+    <t>PC-88</t>
+  </si>
+  <si>
+    <t>PC-98</t>
+  </si>
+  <si>
+    <t>PC-FX</t>
+  </si>
+  <si>
     <t>NEC PC Engine</t>
-  </si>
-  <si>
-    <t>PC-8000</t>
-  </si>
-  <si>
-    <t>PC-88</t>
-  </si>
-  <si>
-    <t>PC-98</t>
-  </si>
-  <si>
-    <t>PC-FX</t>
   </si>
   <si>
     <t>PS Vita</t>
@@ -2100,28 +2103,28 @@
         <v>150</v>
       </c>
       <c r="B121" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B122" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B123" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B124" t="s">
         <v>71</v>
@@ -2129,103 +2132,103 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B125" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B126" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B127" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B128" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B129" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B130" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B131" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B132" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B133" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B134" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B135" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B136" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B137" t="s">
         <v>88</v>
@@ -2233,23 +2236,23 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B138" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B139" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B140" t="s">
         <v>34</v>
@@ -2257,23 +2260,23 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B141" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B142" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -2281,7 +2284,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -2289,7 +2292,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -2297,7 +2300,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -2305,7 +2308,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -2313,239 +2316,239 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B148" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B149" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B150" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B151" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B152" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B153" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B154" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B155" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B156" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B157" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B158" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B159" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B160" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B161" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B162" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B163" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B164" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B165" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B166" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B167" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B168" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B169" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B170" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B171" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B172" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B173" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B174" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B175" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B176" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -2553,7 +2556,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -2561,7 +2564,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -2569,7 +2572,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B180" t="s">
         <v>71</v>
@@ -2577,7 +2580,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B181" t="s">
         <v>71</v>
@@ -2585,151 +2588,151 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B182" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B183" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B184" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B185" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B186" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B187" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B188" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B189" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B190" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B191" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B192" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B193" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B194" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B195" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B196" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B197" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B198" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B199" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -2737,50 +2740,50 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B201" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B202" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B203" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B204" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B205" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B206" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/dist/mobygames.xlsx
+++ b/dist/mobygames.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -829,15 +829,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -2787,6 +2787,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>